--- a/no_r_exp_results.xlsx
+++ b/no_r_exp_results.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -673,81 +673,81 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>6.25</v>
+        <v>32.5</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>0.125*K/k</t>
+          <t>0.65*K/k</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
         <v>25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11845.39671689315</v>
+        <v>5265.746720365726</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>2146.993879678287</v>
+        <v>6211.995981116755</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>13992.39059657143</v>
+        <v>11477.74270148248</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>10690.66741953739</v>
+        <v>4980.115832618115</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0974833789829057</v>
+        <v>-0.05424318770268789</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>12100.74594112714</v>
+        <v>12899.86550147346</v>
       </c>
       <c r="L2" s="8" t="n">
-        <v>1416.118521589752</v>
+        <v>7919.749668855346</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>10526.94538377372</v>
+        <v>4897.784526707553</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>-0.111304953698945</v>
+        <v>-0.06987844520418122</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>11956.52639739002</v>
+        <v>12682.22068299568</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>1429.581013616298</v>
+        <v>7784.436156288133</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.605435371398926</v>
+        <v>3.475839078426361</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01715660095214844</v>
+        <v>0.03689408302307129</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.622591972351074</v>
+        <v>3.512733161449432</v>
       </c>
       <c r="T2" s="9" t="n">
-        <v>0.001415634155273438</v>
+        <v>0.002436995506286621</v>
       </c>
       <c r="U2" s="9" t="n">
-        <v>5.140304565429687e-05</v>
+        <v>0.0001066923141479492</v>
       </c>
       <c r="V2" s="9" t="n">
-        <v>0.001467037200927734</v>
+        <v>0.00254368782043457</v>
       </c>
       <c r="W2" s="10" t="n">
-        <v>1106.033283494767</v>
+        <v>1380.960797638017</v>
       </c>
       <c r="X2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Y2" s="9" t="n">
-        <v>1.339912414550781e-05</v>
+        <v>2.598762512207031e-05</v>
       </c>
       <c r="Z2" s="9" t="n">
-        <v>1.339912414550781e-05</v>
+        <v>2.598762512207031e-05</v>
       </c>
       <c r="AA2" s="10" t="n">
-        <v>121096.8683274021</v>
+        <v>135169.4564220184</v>
       </c>
     </row>
     <row r="3">
@@ -758,81 +758,81 @@
         <v>20</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>0.25*K/k</t>
+          <t>0.75*K/k</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9802.112679168484</v>
+        <v>4365.531415520418</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>3854.916696756766</v>
+        <v>6566.318615206264</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>13657.02937592525</v>
+        <v>10931.85003072668</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>9270.279524407859</v>
+        <v>3765.623986502528</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.05425699256558031</v>
+        <v>-0.1374191070725292</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>12082.06552639613</v>
+        <v>12887.55394494611</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>2817.866001988271</v>
+        <v>9121.929958443579</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>9160.787494444532</v>
+        <v>3809.562970030055</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>-0.06542724060772126</v>
+        <v>-0.1273541277274454</v>
       </c>
       <c r="O3" s="8" t="n">
-        <v>12029.88697902935</v>
+        <v>12637.38481052651</v>
       </c>
       <c r="P3" s="8" t="n">
-        <v>2869.099484584821</v>
+        <v>8827.821840496461</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.607289028167725</v>
+        <v>2.620546817779541</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.0170621395111084</v>
+        <v>0.03103005886077881</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.624351167678833</v>
+        <v>2.65157687664032</v>
       </c>
       <c r="T3" s="9" t="n">
-        <v>0.001426267623901367</v>
+        <v>0.002021133899688721</v>
       </c>
       <c r="U3" s="9" t="n">
-        <v>5.135536193847656e-05</v>
+        <v>0.0002090930938720703</v>
       </c>
       <c r="V3" s="9" t="n">
-        <v>0.001477622985839844</v>
+        <v>0.002230226993560791</v>
       </c>
       <c r="W3" s="10" t="n">
-        <v>1099.300148444559</v>
+        <v>1188.926904882807</v>
       </c>
       <c r="X3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Y3" s="9" t="n">
-        <v>1.168251037597656e-05</v>
+        <v>1.97291374206543e-05</v>
       </c>
       <c r="Z3" s="9" t="n">
-        <v>1.168251037597656e-05</v>
+        <v>1.97291374206543e-05</v>
       </c>
       <c r="AA3" s="10" t="n">
-        <v>139041.2775510204</v>
+        <v>134399.0271903323</v>
       </c>
     </row>
     <row r="4">
@@ -843,166 +843,81 @@
         <v>20</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0.5*K/k</t>
+          <t>1*K/k</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
         <v>25</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6468.333521407674</v>
+        <v>2336.516498232553</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>5612.657039080033</v>
+        <v>8024.011759536395</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>12080.99056048771</v>
+        <v>10360.52825776895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>6446.146654707065</v>
+        <v>712.5822976942654</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.00343007462852361</v>
+        <v>-0.6950236395791364</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>12086.73981800676</v>
+        <v>12904.35719070962</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>5646.553163299698</v>
+        <v>12191.77489301536</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>6302.369959864025</v>
+        <v>429.4830798545406</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>-0.02565785468457588</v>
+        <v>-0.8161865836687132</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>12094.56971283904</v>
+        <v>12911.03700905967</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>5792.199752975017</v>
+        <v>12481.55392920513</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.675450658798218</v>
+        <v>3.420194745063782</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01781435012817383</v>
+        <v>0.03316164016723633</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.693265008926392</v>
+        <v>3.453356385231018</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.001494646072387695</v>
+        <v>0.003088414669036865</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>5.769729614257812e-05</v>
+        <v>0.0001279711723327637</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.001552343368530273</v>
+        <v>0.003216385841369629</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>1090.779941637229</v>
+        <v>1073.676031281272</v>
       </c>
       <c r="X4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Y4" s="9" t="n">
-        <v>1.268386840820313e-05</v>
+        <v>3.147125244140625e-05</v>
       </c>
       <c r="Z4" s="9" t="n">
-        <v>1.268386840820313e-05</v>
+        <v>3.147125244140625e-05</v>
       </c>
       <c r="AA4" s="10" t="n">
-        <v>133497.522556391</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>1*K/k</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2249.804110967893</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>7583.439855407991</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>9833.243966375883</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>896.3659127523808</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>-0.6015804627689326</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>11992.56708726154</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>11101.92117450915</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>372.4390560269156</v>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>-0.8344571181947534</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v>12122.19945564385</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <v>11749.76039961693</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.675687837600708</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01834940910339355</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>1.694037246704102</v>
-      </c>
-      <c r="T5" s="9" t="n">
-        <v>0.00144810676574707</v>
-      </c>
-      <c r="U5" s="9" t="n">
-        <v>6.394386291503906e-05</v>
-      </c>
-      <c r="V5" s="9" t="n">
-        <v>0.001512050628662109</v>
-      </c>
-      <c r="W5" s="10" t="n">
-        <v>1120.357489750867</v>
-      </c>
-      <c r="X5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="9" t="n">
-        <v>1.821517944335938e-05</v>
-      </c>
-      <c r="Z5" s="9" t="n">
-        <v>1.821517944335938e-05</v>
-      </c>
-      <c r="AA5" s="10" t="n">
-        <v>93001.40314136125</v>
+        <v>109730.5037878788</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1027,7 +942,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
@@ -1041,8 +956,8 @@
     <col width="26" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
     <col width="23" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="23" customWidth="1" min="16" max="16"/>
+    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="22" customWidth="1" min="16" max="16"/>
     <col width="19" customWidth="1" min="17" max="17"/>
     <col width="19" customWidth="1" min="18" max="18"/>
     <col width="26" customWidth="1" min="19" max="19"/>
@@ -1208,7 +1123,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>s_curve</t>
+          <t>dbpedia_1994_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -1229,79 +1144,79 @@
         <v>25</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2108.452188238281</v>
+        <v>2371.05597042944</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>7261.769011237201</v>
+        <v>8154.626137486503</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>9370.221199475482</v>
+        <v>10525.68210791594</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>834.3545897128166</v>
+        <v>739.7874620518577</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>-0.6042810008369398</v>
+        <v>-0.6879924087503217</v>
       </c>
       <c r="M2" s="8" t="n">
-        <v>11231.70412187581</v>
+        <v>13044.23357569535</v>
       </c>
       <c r="N2" s="8" t="n">
-        <v>10403.44953216299</v>
+        <v>12304.44611364349</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>818.736937027478</v>
+        <v>36.35984386126114</v>
       </c>
       <c r="P2" s="7" t="n">
-        <v>-0.6116881655677596</v>
+        <v>-0.9846651262919467</v>
       </c>
       <c r="Q2" s="8" t="n">
-        <v>10867.11501614258</v>
+        <v>13202.48001326519</v>
       </c>
       <c r="R2" s="8" t="n">
-        <v>10048.37807911511</v>
+        <v>13166.12016940392</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.710484027862549</v>
+        <v>3.330374240875244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.01725363731384277</v>
+        <v>0.0360569953918457</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.727737665176392</v>
+        <v>3.36643123626709</v>
       </c>
       <c r="V2" s="9" t="n">
-        <v>0.001308441162109375</v>
+        <v>0.003829002380371094</v>
       </c>
       <c r="W2" s="9" t="n">
-        <v>6.532669067382812e-05</v>
+        <v>0.0001714229583740234</v>
       </c>
       <c r="X2" s="9" t="n">
-        <v>0.001373767852783203</v>
+        <v>0.004000425338745117</v>
       </c>
       <c r="Y2" s="10" t="n">
-        <v>1257.663484901076</v>
+        <v>841.518326479528</v>
       </c>
       <c r="Z2" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA2" s="9" t="n">
-        <v>3.0517578125e-05</v>
+        <v>4.38690185546875e-05</v>
       </c>
       <c r="AB2" s="9" t="n">
-        <v>3.0517578125e-05</v>
+        <v>4.38690185546875e-05</v>
       </c>
       <c r="AC2" s="10" t="n">
-        <v>56614.5078125</v>
+        <v>76738.23913043478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>bubble</t>
+          <t>dbpedia_1998_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
@@ -1325,76 +1240,76 @@
         <v>25</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2278.71967480173</v>
+        <v>2283.052924533973</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>7717.664205826915</v>
+        <v>8213.023694266583</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>9996.383880628646</v>
+        <v>10496.07661880056</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>1203.412704157046</v>
+        <v>742.6836536535237</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>-0.4718908528045453</v>
+        <v>-0.6746971365961112</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>12004.39960172346</v>
+        <v>12934.3721754414</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>10806.18689756641</v>
+        <v>12191.68852178787</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>-38.4292844381763</v>
+        <v>1035.563859913601</v>
       </c>
       <c r="P3" s="7" t="n">
-        <v>-1.016864419464636</v>
+        <v>-0.5464126789242149</v>
       </c>
       <c r="Q3" s="8" t="n">
-        <v>12917.60325109104</v>
+        <v>12507.30374709346</v>
       </c>
       <c r="R3" s="8" t="n">
-        <v>12956.03253552922</v>
+        <v>11471.73988717985</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.672043085098267</v>
+        <v>3.468098163604736</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.01733064651489258</v>
+        <v>0.0321800708770752</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.689373731613159</v>
+        <v>3.500278234481812</v>
       </c>
       <c r="V3" s="9" t="n">
-        <v>0.00139307975769043</v>
+        <v>0.002928018569946289</v>
       </c>
       <c r="W3" s="9" t="n">
-        <v>4.816055297851562e-05</v>
+        <v>0.0001232624053955078</v>
       </c>
       <c r="X3" s="9" t="n">
-        <v>0.001441240310668945</v>
+        <v>0.003051280975341797</v>
       </c>
       <c r="Y3" s="10" t="n">
-        <v>1172.166583953681</v>
+        <v>1147.150414127207</v>
       </c>
       <c r="Z3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA3" s="9" t="n">
-        <v>1.239776611328125e-05</v>
+        <v>3.337860107421875e-05</v>
       </c>
       <c r="AB3" s="9" t="n">
-        <v>1.239776611328125e-05</v>
+        <v>3.337860107421875e-05</v>
       </c>
       <c r="AC3" s="10" t="n">
-        <v>136264.3653846154</v>
+        <v>104865.9357142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dbpedia_2002_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
@@ -1415,79 +1330,79 @@
         <v>25</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2497.126804676495</v>
+        <v>2320.90112753736</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>7719.102205689147</v>
+        <v>7573.771068905994</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>10216.22901036564</v>
+        <v>9894.672196443353</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>947.5294374249513</v>
+        <v>677.8841883806091</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>-0.6205521338962582</v>
+        <v>-0.7079219875687286</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>12790.98152145638</v>
+        <v>12564.53199634031</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>11849.25208403143</v>
+        <v>11886.6478079597</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>-339.1624678795457</v>
+        <v>242.5824046524843</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>-1.135821083352427</v>
+        <v>-0.8954792163378879</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>13588.88876329444</v>
+        <v>12700.39349626017</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>13928.05123117399</v>
+        <v>12457.81109160769</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.669073343276978</v>
+        <v>3.376681804656982</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.01896429061889648</v>
+        <v>0.03540444374084473</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.688037633895874</v>
+        <v>3.412086248397827</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.001348972320556641</v>
+        <v>0.003069877624511719</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>5.984306335449219e-05</v>
+        <v>0.0001113414764404297</v>
       </c>
       <c r="X4" s="9" t="n">
-        <v>0.001408815383911133</v>
+        <v>0.003181219100952148</v>
       </c>
       <c r="Y4" s="10" t="n">
-        <v>1198.196479945845</v>
+        <v>1072.571910364985</v>
       </c>
       <c r="Z4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA4" s="9" t="n">
-        <v>1.263618469238281e-05</v>
+        <v>2.312660217285156e-05</v>
       </c>
       <c r="AB4" s="9" t="n">
-        <v>1.263618469238281e-05</v>
+        <v>2.312660217285156e-05</v>
       </c>
       <c r="AC4" s="10" t="n">
-        <v>133587.6037735849</v>
+        <v>147539.4536082474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>disk</t>
+          <t>dbpedia_2010_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -1511,76 +1426,76 @@
         <v>25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2231.401488346187</v>
+        <v>2371.05597042944</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6663.202965902574</v>
+        <v>8154.626137486503</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8894.604454248762</v>
+        <v>10525.68210791594</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>734.5466227096003</v>
+        <v>689.973886691071</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>-0.6708137793463548</v>
+        <v>-0.709001434257115</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>11025.80001515874</v>
+        <v>13074.29101536144</v>
       </c>
       <c r="N5" s="8" t="n">
-        <v>10296.75339244914</v>
+        <v>12384.31712867038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>410.237056780081</v>
+        <v>403.4262109908157</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>-0.8161527367788349</v>
+        <v>-0.829853779909823</v>
       </c>
       <c r="Q5" s="8" t="n">
-        <v>10709.7509541242</v>
+        <v>13233.97077961987</v>
       </c>
       <c r="R5" s="8" t="n">
-        <v>10299.51389734412</v>
+        <v>12830.54456862906</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>1.653075218200684</v>
+        <v>3.505624771118164</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.01730823516845703</v>
+        <v>0.02900505065917969</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.670383453369141</v>
+        <v>3.534629821777344</v>
       </c>
       <c r="V5" s="9" t="n">
-        <v>0.00130152702331543</v>
+        <v>0.002526760101318359</v>
       </c>
       <c r="W5" s="9" t="n">
-        <v>7.43865966796875e-05</v>
+        <v>0.0001058578491210938</v>
       </c>
       <c r="X5" s="9" t="n">
-        <v>0.001375913619995117</v>
+        <v>0.002632617950439453</v>
       </c>
       <c r="Y5" s="10" t="n">
-        <v>1214.017674579796</v>
+        <v>1342.62923383445</v>
       </c>
       <c r="Z5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA5" s="9" t="n">
-        <v>1.311302185058594e-05</v>
+        <v>2.551078796386719e-05</v>
       </c>
       <c r="AB5" s="9" t="n">
-        <v>1.311302185058594e-05</v>
+        <v>2.551078796386719e-05</v>
       </c>
       <c r="AC5" s="10" t="n">
-        <v>127383.5636363636</v>
+        <v>138554.3177570094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>dbpedia_1994_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -1590,90 +1505,90 @@
         <v>20</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>50</v>
+        <v>32.5</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>1*K/k</t>
+          <t>0.65*K/k</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
         <v>25</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2133.320398776771</v>
+        <v>5336.591243635751</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8555.460888384116</v>
+        <v>6161.15017107462</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10688.78128716089</v>
+        <v>11497.74141471037</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>761.9862097574901</v>
+        <v>4991.861130738067</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>-0.6428167985482129</v>
+        <v>-0.06459743629583742</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>12909.95017609329</v>
+        <v>13235.6172236519</v>
       </c>
       <c r="N6" s="8" t="n">
-        <v>12153.9639663358</v>
+        <v>8243.756092913831</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>1010.813038644741</v>
+        <v>4990.80323288467</v>
       </c>
       <c r="P6" s="7" t="n">
-        <v>-0.5261785153208429</v>
+        <v>-0.06479567105002781</v>
       </c>
       <c r="Q6" s="8" t="n">
-        <v>12527.63929356695</v>
+        <v>12785.23453816019</v>
       </c>
       <c r="R6" s="8" t="n">
-        <v>11516.82625492221</v>
+        <v>7794.431305275522</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>1.673763513565063</v>
+        <v>3.504308462142944</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0.02089023590087891</v>
+        <v>0.03961420059204102</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.694653749465942</v>
+        <v>3.543922662734985</v>
       </c>
       <c r="V6" s="9" t="n">
-        <v>0.001888513565063477</v>
+        <v>0.002351760864257812</v>
       </c>
       <c r="W6" s="9" t="n">
-        <v>7.200241088867188e-05</v>
+        <v>8.440017700195312e-05</v>
       </c>
       <c r="X6" s="9" t="n">
-        <v>0.001960515975952148</v>
+        <v>0.002436161041259766</v>
       </c>
       <c r="Y6" s="10" t="n">
-        <v>864.391706189955</v>
+        <v>1454.716089254257</v>
       </c>
       <c r="Z6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA6" s="9" t="n">
-        <v>2.241134643554688e-05</v>
+        <v>2.074241638183594e-05</v>
       </c>
       <c r="AB6" s="9" t="n">
-        <v>2.241134643554688e-05</v>
+        <v>2.074241638183594e-05</v>
       </c>
       <c r="AC6" s="10" t="n">
-        <v>75615.8829787234</v>
+        <v>170853.8965517241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>s_curve</t>
+          <t>dbpedia_1998_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -1683,90 +1598,90 @@
         <v>20</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>0.5*K/k</t>
+          <t>0.65*K/k</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
         <v>25</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>6053.925055732349</v>
+        <v>5263.958244093645</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>5216.312511029158</v>
+        <v>6371.682841190897</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>11270.23756676151</v>
+        <v>11635.64108528454</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6032.893480693552</v>
+        <v>5044.380466600234</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>-0.003474039543796928</v>
+        <v>-0.04171343451285632</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>11198.52308957616</v>
+        <v>12794.23786504194</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>5171.329608882608</v>
+        <v>7749.857398441703</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>5971.45030088796</v>
+        <v>4952.06075286327</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>-0.01362335246722215</v>
+        <v>-0.05925151317078459</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>11170.81972311887</v>
+        <v>12793.70532640067</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>5199.36942223091</v>
+        <v>7841.644573537398</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>1.661532640457153</v>
+        <v>3.495322465896606</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.01753520965576172</v>
+        <v>0.03542971611022949</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1.679067850112915</v>
+        <v>3.530752182006836</v>
       </c>
       <c r="V7" s="9" t="n">
-        <v>0.001352071762084961</v>
+        <v>0.002074956893920898</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>4.935264587402344e-05</v>
+        <v>7.557868957519531e-05</v>
       </c>
       <c r="X7" s="9" t="n">
-        <v>0.001401424407958984</v>
+        <v>0.002150535583496094</v>
       </c>
       <c r="Y7" s="10" t="n">
-        <v>1198.11517522967</v>
+        <v>1641.80133037694</v>
       </c>
       <c r="Z7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA7" s="9" t="n">
-        <v>1.168251037597656e-05</v>
+        <v>2.217292785644531e-05</v>
       </c>
       <c r="AB7" s="9" t="n">
-        <v>1.168251037597656e-05</v>
+        <v>2.217292785644531e-05</v>
       </c>
       <c r="AC7" s="10" t="n">
-        <v>143724.918367347</v>
+        <v>159237.0752688172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>bubble</t>
+          <t>dbpedia_2002_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -1776,11 +1691,11 @@
         <v>20</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>0.5*K/k</t>
+          <t>0.65*K/k</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
@@ -1790,76 +1705,76 @@
         <v>25</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>6624.323823091267</v>
+        <v>5125.846150097758</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>5717.77668359566</v>
+        <v>6154.000741126882</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>12342.10050668692</v>
+        <v>11279.84689122464</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>6627.660873372353</v>
+        <v>4906.679435006234</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>0.0005037571184932587</v>
+        <v>-0.042757177775877</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>12314.74559788364</v>
+        <v>12337.82533967797</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>5692.884724511288</v>
+        <v>7431.145904671741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>6382.070620639309</v>
+        <v>4944.297406876862</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>-0.03657025364724839</v>
+        <v>-0.03541829737075392</v>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>12395.73119403913</v>
+        <v>12059.35342136789</v>
       </c>
       <c r="R8" s="8" t="n">
-        <v>6013.660573399817</v>
+        <v>7115.056014491036</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>1.822080850601196</v>
+        <v>3.465511798858643</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>0.01965904235839844</v>
+        <v>0.03875017166137695</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>1.841739892959595</v>
+        <v>3.50426197052002</v>
       </c>
       <c r="V8" s="9" t="n">
-        <v>0.001637697219848633</v>
+        <v>0.002568960189819336</v>
       </c>
       <c r="W8" s="9" t="n">
-        <v>5.602836608886719e-05</v>
+        <v>0.0001685619354248047</v>
       </c>
       <c r="X8" s="9" t="n">
-        <v>0.0016937255859375</v>
+        <v>0.002737522125244141</v>
       </c>
       <c r="Y8" s="10" t="n">
-        <v>1087.389780405405</v>
+        <v>1280.085350984149</v>
       </c>
       <c r="Z8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA8" s="9" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>3.409385681152344e-05</v>
       </c>
       <c r="AB8" s="9" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>3.409385681152344e-05</v>
       </c>
       <c r="AC8" s="10" t="n">
-        <v>130929.1016949153</v>
+        <v>102782.7972027972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>dbpedia_2010_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
@@ -1869,90 +1784,90 @@
         <v>20</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>25</v>
+        <v>32.5</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>0.5*K/k</t>
+          <t>0.65*K/k</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
         <v>25</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>6935.150297844544</v>
+        <v>5336.591243635751</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>6090.12166983904</v>
+        <v>6161.15017107462</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>13025.27196768358</v>
+        <v>11497.74141471037</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6876.975980814758</v>
+        <v>4977.542298127924</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>-0.008388328231021409</v>
+        <v>-0.06728057839093769</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>12942.72583444231</v>
+        <v>13231.78157752204</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>6071.849853627548</v>
+        <v>8254.239279394113</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>6683.840726393571</v>
+        <v>4703.976714205408</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>-0.03623707643785026</v>
+        <v>-0.1185428114219502</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>13151.97075098093</v>
+        <v>13090.58944605398</v>
       </c>
       <c r="R9" s="8" t="n">
-        <v>6468.130024587359</v>
+        <v>8386.612731848578</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>1.636942386627197</v>
+        <v>3.438213586807251</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.01776552200317383</v>
+        <v>0.0337822437286377</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>1.654707908630371</v>
+        <v>3.471995830535889</v>
       </c>
       <c r="V9" s="9" t="n">
-        <v>0.001373767852783203</v>
+        <v>0.002752304077148438</v>
       </c>
       <c r="W9" s="9" t="n">
-        <v>5.14984130859375e-05</v>
+        <v>9.822845458984375e-05</v>
       </c>
       <c r="X9" s="9" t="n">
-        <v>0.001425266265869141</v>
+        <v>0.002850532531738281</v>
       </c>
       <c r="Y9" s="10" t="n">
-        <v>1160.981599197056</v>
+        <v>1218.01656072265</v>
       </c>
       <c r="Z9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" s="9" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>2.694129943847656e-05</v>
       </c>
       <c r="AB9" s="9" t="n">
-        <v>1.406669616699219e-05</v>
+        <v>2.694129943847656e-05</v>
       </c>
       <c r="AC9" s="10" t="n">
-        <v>117633.0169491525</v>
+        <v>128872.6194690266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>disk</t>
+          <t>dbpedia_1994_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -1962,11 +1877,11 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>0.5*K/k</t>
+          <t>0.75*K/k</t>
         </is>
       </c>
       <c r="F10" s="3" t="n">
@@ -1976,76 +1891,76 @@
         <v>25</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>5889.183835747498</v>
+        <v>4421.279075885443</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>5086.156637609831</v>
+        <v>6564.198359151472</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>10975.34047335733</v>
+        <v>10985.47743503691</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5871.098181179182</v>
+        <v>3843.115598091189</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>-0.003070995077201699</v>
+        <v>-0.1307683744615162</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>11129.68278151459</v>
+        <v>12967.37931910513</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>5264.584600335408</v>
+        <v>9124.263721013936</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>5844.332853968246</v>
+        <v>3873.085358533857</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>-0.007615823012181298</v>
+        <v>-0.1239898472687569</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>11193.45690009903</v>
+        <v>12808.39269100625</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>5349.12404613078</v>
+        <v>8935.307332472401</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>1.619997501373291</v>
+        <v>3.318966150283813</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.01709890365600586</v>
+        <v>0.04122495651245117</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>1.637096405029297</v>
+        <v>3.360191106796265</v>
       </c>
       <c r="V10" s="9" t="n">
-        <v>0.00163578987121582</v>
+        <v>0.002180576324462891</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>8.225440979003906e-05</v>
+        <v>9.131431579589844e-05</v>
       </c>
       <c r="X10" s="9" t="n">
-        <v>0.001718044281005859</v>
+        <v>0.002271890640258789</v>
       </c>
       <c r="Y10" s="10" t="n">
-        <v>952.8837080210935</v>
+        <v>1479.028544443278</v>
       </c>
       <c r="Z10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA10" s="9" t="n">
-        <v>1.168251037597656e-05</v>
+        <v>2.121925354003906e-05</v>
       </c>
       <c r="AB10" s="9" t="n">
-        <v>1.168251037597656e-05</v>
+        <v>2.121925354003906e-05</v>
       </c>
       <c r="AC10" s="10" t="n">
-        <v>140132.2448979592</v>
+        <v>158355.7640449438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>dbpedia_1998_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -2055,90 +1970,90 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>0.5*K/k</t>
+          <t>0.75*K/k</t>
         </is>
       </c>
       <c r="F11" s="3" t="n">
         <v>25</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>6839.084594622714</v>
+        <v>4362.120106416543</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5952.91769332648</v>
+        <v>6703.735566809341</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>12792.00228794919</v>
+        <v>11065.85567322589</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6822.104757475477</v>
+        <v>3887.602237282601</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>-0.00248276460282237</v>
+        <v>-0.1087814772536731</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>12848.02178661711</v>
+        <v>12744.56613175304</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>6032.117029141637</v>
+        <v>8856.963894470438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>6630.155297431039</v>
+        <v>3784.109032581655</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>-0.03054930733799479</v>
+        <v>-0.132506914008317</v>
       </c>
       <c r="Q11" s="8" t="n">
-        <v>12560.86999595726</v>
+        <v>12873.28808981722</v>
       </c>
       <c r="R11" s="8" t="n">
-        <v>5930.714698526222</v>
+        <v>9089.179057235569</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>1.636699914932251</v>
+        <v>3.700944900512695</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>0.0170130729675293</v>
+        <v>0.04393362998962402</v>
       </c>
       <c r="U11" s="4" t="n">
-        <v>1.65371298789978</v>
+        <v>3.744878530502319</v>
       </c>
       <c r="V11" s="9" t="n">
-        <v>0.001473903656005859</v>
+        <v>0.003071308135986328</v>
       </c>
       <c r="W11" s="9" t="n">
-        <v>4.935264587402344e-05</v>
+        <v>0.0006315708160400391</v>
       </c>
       <c r="X11" s="9" t="n">
-        <v>0.001523256301879883</v>
+        <v>0.003702878952026367</v>
       </c>
       <c r="Y11" s="10" t="n">
-        <v>1085.643293160119</v>
+        <v>1011.342411950293</v>
       </c>
       <c r="Z11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA11" s="9" t="n">
-        <v>1.192092895507812e-05</v>
+        <v>3.123283386230469e-05</v>
       </c>
       <c r="AB11" s="9" t="n">
-        <v>1.192092895507812e-05</v>
+        <v>3.123283386230469e-05</v>
       </c>
       <c r="AC11" s="10" t="n">
-        <v>138723.5</v>
+        <v>119901.9770992366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>s_curve</t>
+          <t>dbpedia_2002_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -2148,90 +2063,90 @@
         <v>20</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>0.25*K/k</t>
+          <t>0.75*K/k</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
         <v>25</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>9201.284557956509</v>
+        <v>4257.44740389424</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3762.203361697508</v>
+        <v>6433.142175712768</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12963.48791965401</v>
+        <v>10690.58957960701</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>8692.413597942597</v>
+        <v>3618.783274371451</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>-0.0553043389549215</v>
+        <v>-0.1500110439270746</v>
       </c>
       <c r="M12" s="8" t="n">
-        <v>11340.4206248986</v>
+        <v>12638.64548413412</v>
       </c>
       <c r="N12" s="8" t="n">
-        <v>2654.807026955999</v>
+        <v>9019.862209762674</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>8511.430673963612</v>
+        <v>3675.143676747811</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>-0.07497364956465437</v>
+        <v>-0.1367729702576718</v>
       </c>
       <c r="Q12" s="8" t="n">
-        <v>11182.65205070154</v>
+        <v>12393.51324486928</v>
       </c>
       <c r="R12" s="8" t="n">
-        <v>2671.221376737924</v>
+        <v>8718.36956812147</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>1.618977069854736</v>
+        <v>1.775437593460083</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>0.01742243766784668</v>
+        <v>0.02049350738525391</v>
       </c>
       <c r="U12" s="4" t="n">
-        <v>1.636399507522583</v>
+        <v>1.795931100845337</v>
       </c>
       <c r="V12" s="9" t="n">
-        <v>0.001480340957641602</v>
+        <v>0.001407861709594727</v>
       </c>
       <c r="W12" s="9" t="n">
-        <v>5.364418029785156e-05</v>
+        <v>5.960464477539062e-05</v>
       </c>
       <c r="X12" s="9" t="n">
-        <v>0.001533985137939453</v>
+        <v>0.001467466354370117</v>
       </c>
       <c r="Y12" s="10" t="n">
-        <v>1066.763599626982</v>
+        <v>1223.831194151097</v>
       </c>
       <c r="Z12" s="9" t="n">
         <v>0</v>
       </c>
       <c r="AA12" s="9" t="n">
-        <v>1.239776611328125e-05</v>
+        <v>1.406669616699219e-05</v>
       </c>
       <c r="AB12" s="9" t="n">
-        <v>1.239776611328125e-05</v>
+        <v>1.406669616699219e-05</v>
       </c>
       <c r="AC12" s="10" t="n">
-        <v>131991.4807692308</v>
+        <v>127672.5593220339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>bubble</t>
+          <t>dbpedia_2010_FIFA_World_Cup_squads</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
@@ -2241,11 +2156,11 @@
         <v>20</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>0.25*K/k</t>
+          <t>0.75*K/k</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
@@ -2255,58 +2170,58 @@
         <v>25</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>9984.200980481606</v>
+        <v>4421.279075885443</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>3878.779551310551</v>
+        <v>6564.198359151472</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>13862.98053179216</v>
+        <v>10985.47743503691</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>9402.788787775844</v>
+        <v>3712.994836264868</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>-0.05823322205175769</v>
+        <v>-0.1601989441208771</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>12186.75954806252</v>
+        <v>13199.62484479214</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>2789.670760286676</v>
+        <v>9486.630008527267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>9471.859270306635</v>
+        <v>3905.913812256897</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>-0.0513152440717652</v>
+        <v>-0.1165647439989603</v>
       </c>
       <c r="Q13" s="8" t="n">
-        <v>12379.94445833898</v>
+        <v>12474.3452164133</v>
       </c>
       <c r="R13" s="8" t="n">
-        <v>2908.085188032348</v>
+        <v>8568.431404156403</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>1.600567102432251</v>
+        <v>1.686838626861572</v>
       </c>
       <c r="T13" s="4" t="n">
-        <v>0.01662158966064453</v>
+        <v>0.01846814155578613</v>
       </c>
       <c r="U13" s="4" t="n">
-        <v>1.617188692092896</v>
+        <v>1.705306768417358</v>
       </c>
       <c r="V13" s="9" t="n">
-        <v>0.001397609710693359</v>
+        <v>0.001424789428710938</v>
       </c>
       <c r="W13" s="9" t="n">
-        <v>5.006790161132812e-05</v>
+        <v>5.388259887695312e-05</v>
       </c>
       <c r="X13" s="9" t="n">
-        <v>0.001447677612304688</v>
+        <v>0.001478672027587891</v>
       </c>
       <c r="Y13" s="10" t="n">
-        <v>1117.091732542819</v>
+        <v>1153.269106739761</v>
       </c>
       <c r="Z13" s="9" t="n">
         <v>0</v>
@@ -2318,751 +2233,7 @@
         <v>1.239776611328125e-05</v>
       </c>
       <c r="AC13" s="10" t="n">
-        <v>130441.9423076923</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>flower</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>0.25*K/k</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>10573.55442101573</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>4103.856141220566</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>14677.41056223629</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>10027.52757179905</v>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>-0.05164080378982164</v>
-      </c>
-      <c r="M14" s="8" t="n">
-        <v>13135.66311897909</v>
-      </c>
-      <c r="N14" s="8" t="n">
-        <v>3114.135547180036</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>10014.43543687585</v>
-      </c>
-      <c r="P14" s="7" t="n">
-        <v>-0.05287899999158169</v>
-      </c>
-      <c r="Q14" s="8" t="n">
-        <v>13285.34169120804</v>
-      </c>
-      <c r="R14" s="8" t="n">
-        <v>3270.90625433219</v>
-      </c>
-      <c r="S14" s="4" t="n">
-        <v>1.589487075805664</v>
-      </c>
-      <c r="T14" s="4" t="n">
-        <v>0.01713156700134277</v>
-      </c>
-      <c r="U14" s="4" t="n">
-        <v>1.606618642807007</v>
-      </c>
-      <c r="V14" s="9" t="n">
-        <v>0.001303911209106445</v>
-      </c>
-      <c r="W14" s="9" t="n">
-        <v>4.935264587402344e-05</v>
-      </c>
-      <c r="X14" s="9" t="n">
-        <v>0.001353263854980469</v>
-      </c>
-      <c r="Y14" s="10" t="n">
-        <v>1187.217582804792</v>
-      </c>
-      <c r="Z14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="9" t="n">
-        <v>1.072883605957031e-05</v>
-      </c>
-      <c r="AB14" s="9" t="n">
-        <v>1.072883605957031e-05</v>
-      </c>
-      <c r="AC14" s="10" t="n">
-        <v>149747.7111111111</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>disk</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>0.25*K/k</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>9035.279268782977</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>3731.767971735977</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>12767.04724051896</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>8421.538194078055</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>-0.06792718370370754</v>
-      </c>
-      <c r="M15" s="8" t="n">
-        <v>10963.89596261263</v>
-      </c>
-      <c r="N15" s="8" t="n">
-        <v>2548.657768534578</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>8218.856278033265</v>
-      </c>
-      <c r="P15" s="7" t="n">
-        <v>-0.09035946388181552</v>
-      </c>
-      <c r="Q15" s="8" t="n">
-        <v>10756.20605813012</v>
-      </c>
-      <c r="R15" s="8" t="n">
-        <v>2537.349780096854</v>
-      </c>
-      <c r="S15" s="4" t="n">
-        <v>1.605507135391235</v>
-      </c>
-      <c r="T15" s="4" t="n">
-        <v>0.01683783531188965</v>
-      </c>
-      <c r="U15" s="4" t="n">
-        <v>1.622344970703125</v>
-      </c>
-      <c r="V15" s="9" t="n">
-        <v>0.001584529876708984</v>
-      </c>
-      <c r="W15" s="9" t="n">
-        <v>5.769729614257812e-05</v>
-      </c>
-      <c r="X15" s="9" t="n">
-        <v>0.001642227172851562</v>
-      </c>
-      <c r="Y15" s="10" t="n">
-        <v>987.8931475029036</v>
-      </c>
-      <c r="Z15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="9" t="n">
-        <v>1.1444091796875e-05</v>
-      </c>
-      <c r="AB15" s="9" t="n">
-        <v>1.1444091796875e-05</v>
-      </c>
-      <c r="AC15" s="10" t="n">
-        <v>141762.6666666667</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>snake</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>0.25*K/k</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>10216.2441676056</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>3797.976457819227</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>14014.22062542482</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>9807.129470443746</v>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>-0.04004550894144653</v>
-      </c>
-      <c r="M16" s="8" t="n">
-        <v>12783.58837742781</v>
-      </c>
-      <c r="N16" s="8" t="n">
-        <v>2982.058906984064</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>9587.355813043307</v>
-      </c>
-      <c r="P16" s="7" t="n">
-        <v>-0.06155768639089645</v>
-      </c>
-      <c r="Q16" s="8" t="n">
-        <v>12545.29063676809</v>
-      </c>
-      <c r="R16" s="8" t="n">
-        <v>2957.934823724787</v>
-      </c>
-      <c r="S16" s="4" t="n">
-        <v>1.621906757354736</v>
-      </c>
-      <c r="T16" s="4" t="n">
-        <v>0.01729726791381836</v>
-      </c>
-      <c r="U16" s="4" t="n">
-        <v>1.639204025268555</v>
-      </c>
-      <c r="V16" s="9" t="n">
-        <v>0.001364946365356445</v>
-      </c>
-      <c r="W16" s="9" t="n">
-        <v>4.601478576660156e-05</v>
-      </c>
-      <c r="X16" s="9" t="n">
-        <v>0.001410961151123047</v>
-      </c>
-      <c r="Y16" s="10" t="n">
-        <v>1161.764109496452</v>
-      </c>
-      <c r="Z16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9" t="n">
-        <v>1.1444091796875e-05</v>
-      </c>
-      <c r="AB16" s="9" t="n">
-        <v>1.1444091796875e-05</v>
-      </c>
-      <c r="AC16" s="10" t="n">
-        <v>143235.8333333333</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>s_curve</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>0.125*K/k</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>11230.29983600783</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>2159.94916782665</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>13390.24900383448</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>10008.09060344998</v>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>-0.108831398128754</v>
-      </c>
-      <c r="M17" s="8" t="n">
-        <v>11322.68424824157</v>
-      </c>
-      <c r="N17" s="8" t="n">
-        <v>1320.593644791584</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>9603.131762980833</v>
-      </c>
-      <c r="P17" s="7" t="n">
-        <v>-0.1448908841961451</v>
-      </c>
-      <c r="Q17" s="8" t="n">
-        <v>10917.89097847829</v>
-      </c>
-      <c r="R17" s="8" t="n">
-        <v>1314.759215497455</v>
-      </c>
-      <c r="S17" s="4" t="n">
-        <v>1.604072093963623</v>
-      </c>
-      <c r="T17" s="4" t="n">
-        <v>0.0169064998626709</v>
-      </c>
-      <c r="U17" s="4" t="n">
-        <v>1.620978593826294</v>
-      </c>
-      <c r="V17" s="9" t="n">
-        <v>0.001440286636352539</v>
-      </c>
-      <c r="W17" s="9" t="n">
-        <v>5.388259887695312e-05</v>
-      </c>
-      <c r="X17" s="9" t="n">
-        <v>0.001494169235229492</v>
-      </c>
-      <c r="Y17" s="10" t="n">
-        <v>1084.869475027924</v>
-      </c>
-      <c r="Z17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9" t="n">
-        <v>1.9073486328125e-05</v>
-      </c>
-      <c r="AB17" s="9" t="n">
-        <v>1.9073486328125e-05</v>
-      </c>
-      <c r="AC17" s="10" t="n">
-        <v>84985.96249999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>bubble</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>0.125*K/k</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>12045.75514275077</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>2158.218812513983</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>14203.97395526476</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>10846.79185201787</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>-0.09953409118185878</v>
-      </c>
-      <c r="M18" s="8" t="n">
-        <v>12253.81292673227</v>
-      </c>
-      <c r="N18" s="8" t="n">
-        <v>1413.121074714394</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>10579.45310307487</v>
-      </c>
-      <c r="P18" s="7" t="n">
-        <v>-0.1217276976245304</v>
-      </c>
-      <c r="Q18" s="8" t="n">
-        <v>12028.96718829559</v>
-      </c>
-      <c r="R18" s="8" t="n">
-        <v>1449.514085220719</v>
-      </c>
-      <c r="S18" s="4" t="n">
-        <v>1.609965801239014</v>
-      </c>
-      <c r="T18" s="4" t="n">
-        <v>0.01761794090270996</v>
-      </c>
-      <c r="U18" s="4" t="n">
-        <v>1.627583742141724</v>
-      </c>
-      <c r="V18" s="9" t="n">
-        <v>0.001442432403564453</v>
-      </c>
-      <c r="W18" s="9" t="n">
-        <v>5.173683166503906e-05</v>
-      </c>
-      <c r="X18" s="9" t="n">
-        <v>0.001494169235229492</v>
-      </c>
-      <c r="Y18" s="10" t="n">
-        <v>1089.290090952609</v>
-      </c>
-      <c r="Z18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9" t="n">
-        <v>1.382827758789062e-05</v>
-      </c>
-      <c r="AB18" s="9" t="n">
-        <v>1.382827758789062e-05</v>
-      </c>
-      <c r="AC18" s="10" t="n">
-        <v>117699.6724137931</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>flower</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>0.125*K/k</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>12705.77206398741</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>2204.877721813506</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>14910.64978580091</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>11525.5676813457</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>-0.09288726231653577</v>
-      </c>
-      <c r="M19" s="8" t="n">
-        <v>13064.72176519264</v>
-      </c>
-      <c r="N19" s="8" t="n">
-        <v>1545.554083846945</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>11331.23792906395</v>
-      </c>
-      <c r="P19" s="7" t="n">
-        <v>-0.1081818663203763</v>
-      </c>
-      <c r="Q19" s="8" t="n">
-        <v>12829.28923430216</v>
-      </c>
-      <c r="R19" s="8" t="n">
-        <v>1498.051305238203</v>
-      </c>
-      <c r="S19" s="4" t="n">
-        <v>1.602114677429199</v>
-      </c>
-      <c r="T19" s="4" t="n">
-        <v>0.01743817329406738</v>
-      </c>
-      <c r="U19" s="4" t="n">
-        <v>1.619552850723267</v>
-      </c>
-      <c r="V19" s="9" t="n">
-        <v>0.001444101333618164</v>
-      </c>
-      <c r="W19" s="9" t="n">
-        <v>4.839897155761719e-05</v>
-      </c>
-      <c r="X19" s="9" t="n">
-        <v>0.001492500305175781</v>
-      </c>
-      <c r="Y19" s="10" t="n">
-        <v>1085.12731629393</v>
-      </c>
-      <c r="Z19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="9" t="n">
-        <v>1.192092895507812e-05</v>
-      </c>
-      <c r="AB19" s="9" t="n">
-        <v>1.192092895507812e-05</v>
-      </c>
-      <c r="AC19" s="10" t="n">
-        <v>135857.94</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>disk</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>0.125*K/k</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>11017.98665025427</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>2101.709379785549</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>13119.69603003982</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>9734.771818889414</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>-0.1164654552685672</v>
-      </c>
-      <c r="M20" s="8" t="n">
-        <v>11019.46261712069</v>
-      </c>
-      <c r="N20" s="8" t="n">
-        <v>1290.29079823127</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>9462.438226107095</v>
-      </c>
-      <c r="P20" s="7" t="n">
-        <v>-0.1411826383099928</v>
-      </c>
-      <c r="Q20" s="8" t="n">
-        <v>10678.35073736203</v>
-      </c>
-      <c r="R20" s="8" t="n">
-        <v>1215.912511254928</v>
-      </c>
-      <c r="S20" s="4" t="n">
-        <v>1.600852012634277</v>
-      </c>
-      <c r="T20" s="4" t="n">
-        <v>0.01690912246704102</v>
-      </c>
-      <c r="U20" s="4" t="n">
-        <v>1.617761135101318</v>
-      </c>
-      <c r="V20" s="9" t="n">
-        <v>0.001359462738037109</v>
-      </c>
-      <c r="W20" s="9" t="n">
-        <v>5.435943603515625e-05</v>
-      </c>
-      <c r="X20" s="9" t="n">
-        <v>0.001413822174072266</v>
-      </c>
-      <c r="Y20" s="10" t="n">
-        <v>1144.246543001686</v>
-      </c>
-      <c r="Z20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="9" t="n">
-        <v>1.072883605957031e-05</v>
-      </c>
-      <c r="AB20" s="9" t="n">
-        <v>1.072883605957031e-05</v>
-      </c>
-      <c r="AC20" s="10" t="n">
-        <v>150786.2666666667</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>snake</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>0.125*K/k</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>12227.16989146546</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>2110.214316451748</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>14337.3842079172</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>11338.11514198396</v>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>-0.07271140888473722</v>
-      </c>
-      <c r="M21" s="8" t="n">
-        <v>12843.04814834853</v>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>1511.033006364568</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>11658.46589764185</v>
-      </c>
-      <c r="P21" s="7" t="n">
-        <v>-0.04651149848016448</v>
-      </c>
-      <c r="Q21" s="8" t="n">
-        <v>13328.13384851203</v>
-      </c>
-      <c r="R21" s="8" t="n">
-        <v>1669.667950870184</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>1.610172271728516</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>0.01691126823425293</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>1.627083539962769</v>
-      </c>
-      <c r="V21" s="9" t="n">
-        <v>0.001391887664794922</v>
-      </c>
-      <c r="W21" s="9" t="n">
-        <v>4.863739013671875e-05</v>
-      </c>
-      <c r="X21" s="9" t="n">
-        <v>0.001440525054931641</v>
-      </c>
-      <c r="Y21" s="10" t="n">
-        <v>1129.507282356836</v>
-      </c>
-      <c r="Z21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="9" t="n">
-        <v>1.1444091796875e-05</v>
-      </c>
-      <c r="AB21" s="9" t="n">
-        <v>1.1444091796875e-05</v>
-      </c>
-      <c r="AC21" s="10" t="n">
-        <v>142176.7291666667</v>
+        <v>137549.5192307692</v>
       </c>
     </row>
   </sheetData>
